--- a/natmiOut/OldD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.96450884579554</v>
+        <v>3.001858</v>
       </c>
       <c r="H2">
-        <v>2.96450884579554</v>
+        <v>6.003716</v>
       </c>
       <c r="I2">
-        <v>0.1743511485795573</v>
+        <v>0.1699513786981177</v>
       </c>
       <c r="J2">
-        <v>0.1743511485795573</v>
+        <v>0.1289067695015173</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N2">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O2">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P2">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q2">
-        <v>52.50011840379225</v>
+        <v>54.488169952627</v>
       </c>
       <c r="R2">
-        <v>52.50011840379225</v>
+        <v>217.952679810508</v>
       </c>
       <c r="S2">
-        <v>0.01460614883921894</v>
+        <v>0.01431919915355037</v>
       </c>
       <c r="T2">
-        <v>0.01460614883921894</v>
+        <v>0.007473851534209677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.96450884579554</v>
+        <v>3.001858</v>
       </c>
       <c r="H3">
-        <v>2.96450884579554</v>
+        <v>6.003716</v>
       </c>
       <c r="I3">
-        <v>0.1743511485795573</v>
+        <v>0.1699513786981177</v>
       </c>
       <c r="J3">
-        <v>0.1743511485795573</v>
+        <v>0.1289067695015173</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N3">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O3">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P3">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q3">
-        <v>24.04497201133446</v>
+        <v>25.63832884356</v>
       </c>
       <c r="R3">
-        <v>24.04497201133446</v>
+        <v>153.82997306136</v>
       </c>
       <c r="S3">
-        <v>0.006689593294460761</v>
+        <v>0.006737615467620428</v>
       </c>
       <c r="T3">
-        <v>0.006689593294460761</v>
+        <v>0.005275009149562423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.96450884579554</v>
+        <v>3.001858</v>
       </c>
       <c r="H4">
-        <v>2.96450884579554</v>
+        <v>6.003716</v>
       </c>
       <c r="I4">
-        <v>0.1743511485795573</v>
+        <v>0.1699513786981177</v>
       </c>
       <c r="J4">
-        <v>0.1743511485795573</v>
+        <v>0.1289067695015173</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N4">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O4">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P4">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q4">
-        <v>226.5205343005299</v>
+        <v>237.2602892553153</v>
       </c>
       <c r="R4">
-        <v>226.5205343005299</v>
+        <v>1423.561735531892</v>
       </c>
       <c r="S4">
-        <v>0.06302067004279267</v>
+        <v>0.06235073293945398</v>
       </c>
       <c r="T4">
-        <v>0.06302067004279267</v>
+        <v>0.04881559185414645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.96450884579554</v>
+        <v>3.001858</v>
       </c>
       <c r="H5">
-        <v>2.96450884579554</v>
+        <v>6.003716</v>
       </c>
       <c r="I5">
-        <v>0.1743511485795573</v>
+        <v>0.1699513786981177</v>
       </c>
       <c r="J5">
-        <v>0.1743511485795573</v>
+        <v>0.1289067695015173</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N5">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O5">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P5">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q5">
-        <v>286.411205988595</v>
+        <v>290.5674727363693</v>
       </c>
       <c r="R5">
-        <v>286.411205988595</v>
+        <v>1743.404836418216</v>
       </c>
       <c r="S5">
-        <v>0.07968295750714792</v>
+        <v>0.07635957517518521</v>
       </c>
       <c r="T5">
-        <v>0.07968295750714792</v>
+        <v>0.05978338473627087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.96450884579554</v>
+        <v>3.001858</v>
       </c>
       <c r="H6">
-        <v>2.96450884579554</v>
+        <v>6.003716</v>
       </c>
       <c r="I6">
-        <v>0.1743511485795573</v>
+        <v>0.1699513786981177</v>
       </c>
       <c r="J6">
-        <v>0.1743511485795573</v>
+        <v>0.1289067695015173</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N6">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O6">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P6">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q6">
-        <v>31.35273060959265</v>
+        <v>32.70956958799734</v>
       </c>
       <c r="R6">
-        <v>31.35273060959265</v>
+        <v>196.257417527984</v>
       </c>
       <c r="S6">
-        <v>0.008722697466651181</v>
+        <v>0.008595899652432112</v>
       </c>
       <c r="T6">
-        <v>0.008722697466651181</v>
+        <v>0.00672989569280274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.96450884579554</v>
+        <v>3.001858</v>
       </c>
       <c r="H7">
-        <v>2.96450884579554</v>
+        <v>6.003716</v>
       </c>
       <c r="I7">
-        <v>0.1743511485795573</v>
+        <v>0.1699513786981177</v>
       </c>
       <c r="J7">
-        <v>0.1743511485795573</v>
+        <v>0.1289067695015173</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N7">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O7">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P7">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q7">
-        <v>5.855545419151115</v>
+        <v>6.044096993816</v>
       </c>
       <c r="R7">
-        <v>5.855545419151115</v>
+        <v>24.176387975264</v>
       </c>
       <c r="S7">
-        <v>0.00162908142928588</v>
+        <v>0.001588356309875549</v>
       </c>
       <c r="T7">
-        <v>0.00162908142928588</v>
+        <v>0.0008290365345251595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.65691459200169</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H8">
-        <v>1.65691459200169</v>
+        <v>5.300461</v>
       </c>
       <c r="I8">
-        <v>0.09744783275767206</v>
+        <v>0.100029232416013</v>
       </c>
       <c r="J8">
-        <v>0.09744783275767206</v>
+        <v>0.113807066220118</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N8">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O8">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P8">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q8">
-        <v>29.34321224523658</v>
+        <v>32.07040659432383</v>
       </c>
       <c r="R8">
-        <v>29.34321224523658</v>
+        <v>192.422439565943</v>
       </c>
       <c r="S8">
-        <v>0.008163625883246742</v>
+        <v>0.008427931041888805</v>
       </c>
       <c r="T8">
-        <v>0.008163625883246742</v>
+        <v>0.006598389826712083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.65691459200169</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H9">
-        <v>1.65691459200169</v>
+        <v>5.300461</v>
       </c>
       <c r="I9">
-        <v>0.09744783275767206</v>
+        <v>0.100029232416013</v>
       </c>
       <c r="J9">
-        <v>0.09744783275767206</v>
+        <v>0.113807066220118</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N9">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O9">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P9">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q9">
-        <v>13.43914525549709</v>
+        <v>15.09009443934</v>
       </c>
       <c r="R9">
-        <v>13.43914525549709</v>
+        <v>135.81084995406</v>
       </c>
       <c r="S9">
-        <v>0.003738927869913043</v>
+        <v>0.00396559597634963</v>
       </c>
       <c r="T9">
-        <v>0.003738927869913043</v>
+        <v>0.004657112407032376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.65691459200169</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H10">
-        <v>1.65691459200169</v>
+        <v>5.300461</v>
       </c>
       <c r="I10">
-        <v>0.09744783275767206</v>
+        <v>0.100029232416013</v>
       </c>
       <c r="J10">
-        <v>0.09744783275767206</v>
+        <v>0.113807066220118</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N10">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O10">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P10">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q10">
-        <v>126.6061928615521</v>
+        <v>139.6456139327175</v>
       </c>
       <c r="R10">
-        <v>126.6061928615521</v>
+        <v>1256.810525394457</v>
       </c>
       <c r="S10">
-        <v>0.03522332812051548</v>
+        <v>0.03669811921671969</v>
       </c>
       <c r="T10">
-        <v>0.03522332812051548</v>
+        <v>0.04309749841844966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.65691459200169</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H11">
-        <v>1.65691459200169</v>
+        <v>5.300461</v>
       </c>
       <c r="I11">
-        <v>0.09744783275767206</v>
+        <v>0.100029232416013</v>
       </c>
       <c r="J11">
-        <v>0.09744783275767206</v>
+        <v>0.113807066220118</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N11">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O11">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P11">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q11">
-        <v>160.0801114789572</v>
+        <v>171.0209207217318</v>
       </c>
       <c r="R11">
-        <v>160.0801114789572</v>
+        <v>1539.188286495586</v>
       </c>
       <c r="S11">
-        <v>0.04453616497542063</v>
+        <v>0.04494338175363807</v>
       </c>
       <c r="T11">
-        <v>0.04453616497542063</v>
+        <v>0.05278056111291723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.65691459200169</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H12">
-        <v>1.65691459200169</v>
+        <v>5.300461</v>
       </c>
       <c r="I12">
-        <v>0.09744783275767206</v>
+        <v>0.100029232416013</v>
       </c>
       <c r="J12">
-        <v>0.09744783275767206</v>
+        <v>0.113807066220118</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N12">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O12">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P12">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q12">
-        <v>17.52357626451656</v>
+        <v>19.25205410870711</v>
       </c>
       <c r="R12">
-        <v>17.52357626451656</v>
+        <v>173.268486978364</v>
       </c>
       <c r="S12">
-        <v>0.004875264492669121</v>
+        <v>0.005059336680552507</v>
       </c>
       <c r="T12">
-        <v>0.004875264492669121</v>
+        <v>0.005941578458036474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.65691459200169</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H13">
-        <v>1.65691459200169</v>
+        <v>5.300461</v>
       </c>
       <c r="I13">
-        <v>0.09744783275767206</v>
+        <v>0.100029232416013</v>
       </c>
       <c r="J13">
-        <v>0.09744783275767206</v>
+        <v>0.113807066220118</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N13">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O13">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P13">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q13">
-        <v>3.272764276915665</v>
+        <v>3.557407933790667</v>
       </c>
       <c r="R13">
-        <v>3.272764276915665</v>
+        <v>21.344447602744</v>
       </c>
       <c r="S13">
-        <v>0.0009105214159070545</v>
+        <v>0.000934867746864249</v>
       </c>
       <c r="T13">
-        <v>0.0009105214159070545</v>
+        <v>0.0007319259969701701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.7051626145587</v>
+        <v>2.723455</v>
       </c>
       <c r="H14">
-        <v>2.7051626145587</v>
+        <v>8.170365</v>
       </c>
       <c r="I14">
-        <v>0.1590982633132331</v>
+        <v>0.1541894826711597</v>
       </c>
       <c r="J14">
-        <v>0.1590982633132331</v>
+        <v>0.175427245025958</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N14">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O14">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P14">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q14">
-        <v>47.90721328670276</v>
+        <v>49.4347430485825</v>
       </c>
       <c r="R14">
-        <v>47.90721328670276</v>
+        <v>296.608458291495</v>
       </c>
       <c r="S14">
-        <v>0.01332834875449048</v>
+        <v>0.01299118563594031</v>
       </c>
       <c r="T14">
-        <v>0.01332834875449048</v>
+        <v>0.01017104989481565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.7051626145587</v>
+        <v>2.723455</v>
       </c>
       <c r="H15">
-        <v>2.7051626145587</v>
+        <v>8.170365</v>
       </c>
       <c r="I15">
-        <v>0.1590982633132331</v>
+        <v>0.1541894826711597</v>
       </c>
       <c r="J15">
-        <v>0.1590982633132331</v>
+        <v>0.175427245025958</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N15">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O15">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P15">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q15">
-        <v>21.94142866040833</v>
+        <v>23.2605389331</v>
       </c>
       <c r="R15">
-        <v>21.94142866040833</v>
+        <v>209.3448503979</v>
       </c>
       <c r="S15">
-        <v>0.00610436285674889</v>
+        <v>0.00611274501770843</v>
       </c>
       <c r="T15">
-        <v>0.00610436285674889</v>
+        <v>0.007178679026500352</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.7051626145587</v>
+        <v>2.723455</v>
       </c>
       <c r="H16">
-        <v>2.7051626145587</v>
+        <v>8.170365</v>
       </c>
       <c r="I16">
-        <v>0.1590982633132331</v>
+        <v>0.1541894826711597</v>
       </c>
       <c r="J16">
-        <v>0.1590982633132331</v>
+        <v>0.175427245025958</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N16">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O16">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P16">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q16">
-        <v>206.7036776391248</v>
+        <v>215.2559251882783</v>
       </c>
       <c r="R16">
-        <v>206.7036776391248</v>
+        <v>1937.303326694505</v>
       </c>
       <c r="S16">
-        <v>0.05750738804034593</v>
+        <v>0.05656810394682914</v>
       </c>
       <c r="T16">
-        <v>0.05750738804034593</v>
+        <v>0.06643239006298819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.7051626145587</v>
+        <v>2.723455</v>
       </c>
       <c r="H17">
-        <v>2.7051626145587</v>
+        <v>8.170365</v>
       </c>
       <c r="I17">
-        <v>0.1590982633132331</v>
+        <v>0.1541894826711597</v>
       </c>
       <c r="J17">
-        <v>0.1590982633132331</v>
+        <v>0.175427245025958</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N17">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O17">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P17">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q17">
-        <v>261.354891192136</v>
+        <v>263.6192106559433</v>
       </c>
       <c r="R17">
-        <v>261.354891192136</v>
+        <v>2372.57289590349</v>
       </c>
       <c r="S17">
-        <v>0.0727119967854104</v>
+        <v>0.06927771627063441</v>
       </c>
       <c r="T17">
-        <v>0.0727119967854104</v>
+        <v>0.08135829113681622</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.7051626145587</v>
+        <v>2.723455</v>
       </c>
       <c r="H18">
-        <v>2.7051626145587</v>
+        <v>8.170365</v>
       </c>
       <c r="I18">
-        <v>0.1590982633132331</v>
+        <v>0.1541894826711597</v>
       </c>
       <c r="J18">
-        <v>0.1590982633132331</v>
+        <v>0.175427245025958</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N18">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O18">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P18">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q18">
-        <v>28.60987742697726</v>
+        <v>29.67596763147333</v>
       </c>
       <c r="R18">
-        <v>28.60987742697726</v>
+        <v>267.08370868326</v>
       </c>
       <c r="S18">
-        <v>0.007959603533771367</v>
+        <v>0.007798685310202714</v>
       </c>
       <c r="T18">
-        <v>0.007959603533771367</v>
+        <v>0.00915861180344411</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.7051626145587</v>
+        <v>2.723455</v>
       </c>
       <c r="H19">
-        <v>2.7051626145587</v>
+        <v>8.170365</v>
       </c>
       <c r="I19">
-        <v>0.1590982633132331</v>
+        <v>0.1541894826711597</v>
       </c>
       <c r="J19">
-        <v>0.1590982633132331</v>
+        <v>0.175427245025958</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N19">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O19">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P19">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q19">
-        <v>5.343280583629783</v>
+        <v>5.48354591666</v>
       </c>
       <c r="R19">
-        <v>5.343280583629783</v>
+        <v>32.90127549996</v>
       </c>
       <c r="S19">
-        <v>0.001486563342466058</v>
+        <v>0.001441046489844661</v>
       </c>
       <c r="T19">
-        <v>0.001486563342466058</v>
+        <v>0.00112822310139348</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.3177411151428</v>
+        <v>4.499161</v>
       </c>
       <c r="H20">
-        <v>4.3177411151428</v>
+        <v>13.497483</v>
       </c>
       <c r="I20">
-        <v>0.2539385651562485</v>
+        <v>0.2547217806221353</v>
       </c>
       <c r="J20">
-        <v>0.2539385651562485</v>
+        <v>0.2898066680588569</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N20">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O20">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P20">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q20">
-        <v>76.46525329260328</v>
+        <v>81.66643765702149</v>
       </c>
       <c r="R20">
-        <v>76.46525329260328</v>
+        <v>489.998625942129</v>
       </c>
       <c r="S20">
-        <v>0.02127353050959338</v>
+        <v>0.02146150230386875</v>
       </c>
       <c r="T20">
-        <v>0.02127353050959338</v>
+        <v>0.01680262424597017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.3177411151428</v>
+        <v>4.499161</v>
       </c>
       <c r="H21">
-        <v>4.3177411151428</v>
+        <v>13.497483</v>
       </c>
       <c r="I21">
-        <v>0.2539385651562485</v>
+        <v>0.2547217806221353</v>
       </c>
       <c r="J21">
-        <v>0.2539385651562485</v>
+        <v>0.2898066680588569</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N21">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O21">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P21">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q21">
-        <v>35.02096625990539</v>
+        <v>38.42652425202</v>
       </c>
       <c r="R21">
-        <v>35.02096625990539</v>
+        <v>345.83871826818</v>
       </c>
       <c r="S21">
-        <v>0.009743243658065611</v>
+        <v>0.01009828471064074</v>
       </c>
       <c r="T21">
-        <v>0.009743243658065611</v>
+        <v>0.01185921291431228</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.3177411151428</v>
+        <v>4.499161</v>
       </c>
       <c r="H22">
-        <v>4.3177411151428</v>
+        <v>13.497483</v>
       </c>
       <c r="I22">
-        <v>0.2539385651562485</v>
+        <v>0.2547217806221353</v>
       </c>
       <c r="J22">
-        <v>0.2539385651562485</v>
+        <v>0.2898066680588569</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N22">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O22">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P22">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q22">
-        <v>329.9221136616466</v>
+        <v>355.6038427754523</v>
       </c>
       <c r="R22">
-        <v>329.9221136616466</v>
+        <v>3200.434584979071</v>
       </c>
       <c r="S22">
-        <v>0.09178820246515165</v>
+        <v>0.09345078480148186</v>
       </c>
       <c r="T22">
-        <v>0.09178820246515165</v>
+        <v>0.109746633782524</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.3177411151428</v>
+        <v>4.499161</v>
       </c>
       <c r="H23">
-        <v>4.3177411151428</v>
+        <v>13.497483</v>
       </c>
       <c r="I23">
-        <v>0.2539385651562485</v>
+        <v>0.2547217806221353</v>
       </c>
       <c r="J23">
-        <v>0.2539385651562485</v>
+        <v>0.2898066680588569</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N23">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O23">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P23">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q23">
-        <v>417.1515432272996</v>
+        <v>435.5002272605954</v>
       </c>
       <c r="R23">
-        <v>417.1515432272996</v>
+        <v>3919.502045345358</v>
       </c>
       <c r="S23">
-        <v>0.1160564530926409</v>
+        <v>0.1144471266145039</v>
       </c>
       <c r="T23">
-        <v>0.1160564530926409</v>
+        <v>0.1344042954663871</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.3177411151428</v>
+        <v>4.499161</v>
       </c>
       <c r="H24">
-        <v>4.3177411151428</v>
+        <v>13.497483</v>
       </c>
       <c r="I24">
-        <v>0.2539385651562485</v>
+        <v>0.2547217806221353</v>
       </c>
       <c r="J24">
-        <v>0.2539385651562485</v>
+        <v>0.2898066680588569</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N24">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O24">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P24">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q24">
-        <v>45.66455391658863</v>
+        <v>49.02484388572133</v>
       </c>
       <c r="R24">
-        <v>45.66455391658863</v>
+        <v>441.2235949714919</v>
       </c>
       <c r="S24">
-        <v>0.01270441460821645</v>
+        <v>0.01288346633189715</v>
       </c>
       <c r="T24">
-        <v>0.01270441460821645</v>
+        <v>0.01513007155991026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.3177411151428</v>
+        <v>4.499161</v>
       </c>
       <c r="H25">
-        <v>4.3177411151428</v>
+        <v>13.497483</v>
       </c>
       <c r="I25">
-        <v>0.2539385651562485</v>
+        <v>0.2547217806221353</v>
       </c>
       <c r="J25">
-        <v>0.2539385651562485</v>
+        <v>0.2898066680588569</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N25">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O25">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P25">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q25">
-        <v>8.528471501683143</v>
+        <v>9.058844713772</v>
       </c>
       <c r="R25">
-        <v>8.528471501683143</v>
+        <v>54.35306828263199</v>
       </c>
       <c r="S25">
-        <v>0.002372720822580526</v>
+        <v>0.002380615859742861</v>
       </c>
       <c r="T25">
-        <v>0.002372720822580526</v>
+        <v>0.001863830089753122</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.11150208303701</v>
+        <v>2.258577666666667</v>
       </c>
       <c r="H26">
-        <v>2.11150208303701</v>
+        <v>6.775733000000001</v>
       </c>
       <c r="I26">
-        <v>0.124183408637068</v>
+        <v>0.127870268462658</v>
       </c>
       <c r="J26">
-        <v>0.124183408637068</v>
+        <v>0.1454828729464925</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N26">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O26">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P26">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q26">
-        <v>37.39375226574801</v>
+        <v>40.99653073281317</v>
       </c>
       <c r="R26">
-        <v>37.39375226574801</v>
+        <v>245.979184396879</v>
       </c>
       <c r="S26">
-        <v>0.01040338056096543</v>
+        <v>0.0107736686454726</v>
       </c>
       <c r="T26">
-        <v>0.01040338056096543</v>
+        <v>0.008434913056754374</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.11150208303701</v>
+        <v>2.258577666666667</v>
       </c>
       <c r="H27">
-        <v>2.11150208303701</v>
+        <v>6.775733000000001</v>
       </c>
       <c r="I27">
-        <v>0.124183408637068</v>
+        <v>0.127870268462658</v>
       </c>
       <c r="J27">
-        <v>0.124183408637068</v>
+        <v>0.1454828729464925</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N27">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O27">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P27">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q27">
-        <v>17.12627997737503</v>
+        <v>19.29010530702</v>
       </c>
       <c r="R27">
-        <v>17.12627997737503</v>
+        <v>173.61094776318</v>
       </c>
       <c r="S27">
-        <v>0.004764732004749263</v>
+        <v>0.005069336331617083</v>
       </c>
       <c r="T27">
-        <v>0.004764732004749263</v>
+        <v>0.005953321837673875</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.11150208303701</v>
+        <v>2.258577666666667</v>
       </c>
       <c r="H28">
-        <v>2.11150208303701</v>
+        <v>6.775733000000001</v>
       </c>
       <c r="I28">
-        <v>0.124183408637068</v>
+        <v>0.127870268462658</v>
       </c>
       <c r="J28">
-        <v>0.124183408637068</v>
+        <v>0.1454828729464925</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N28">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O28">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P28">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q28">
-        <v>161.3415931291889</v>
+        <v>178.5130377582579</v>
       </c>
       <c r="R28">
-        <v>161.3415931291889</v>
+        <v>1606.617339824321</v>
       </c>
       <c r="S28">
-        <v>0.04488712396944638</v>
+        <v>0.04691226997324606</v>
       </c>
       <c r="T28">
-        <v>0.04488712396944638</v>
+        <v>0.0550927819771407</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.11150208303701</v>
+        <v>2.258577666666667</v>
       </c>
       <c r="H29">
-        <v>2.11150208303701</v>
+        <v>6.775733000000001</v>
       </c>
       <c r="I29">
-        <v>0.124183408637068</v>
+        <v>0.127870268462658</v>
       </c>
       <c r="J29">
-        <v>0.124183408637068</v>
+        <v>0.1454828729464925</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N29">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O29">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P29">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q29">
-        <v>203.9993434014432</v>
+        <v>218.6210022533176</v>
       </c>
       <c r="R29">
-        <v>203.9993434014432</v>
+        <v>1967.589020279858</v>
       </c>
       <c r="S29">
-        <v>0.05675501052982741</v>
+        <v>0.05745242817176156</v>
       </c>
       <c r="T29">
-        <v>0.05675501052982741</v>
+        <v>0.06747092181063309</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.11150208303701</v>
+        <v>2.258577666666667</v>
       </c>
       <c r="H30">
-        <v>2.11150208303701</v>
+        <v>6.775733000000001</v>
       </c>
       <c r="I30">
-        <v>0.124183408637068</v>
+        <v>0.127870268462658</v>
       </c>
       <c r="J30">
-        <v>0.124183408637068</v>
+        <v>0.1454828729464925</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N30">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O30">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P30">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q30">
-        <v>22.33130661254197</v>
+        <v>24.61045904161023</v>
       </c>
       <c r="R30">
-        <v>22.33130661254197</v>
+        <v>221.494131374492</v>
       </c>
       <c r="S30">
-        <v>0.006212831476842181</v>
+        <v>0.006467496790284862</v>
       </c>
       <c r="T30">
-        <v>0.006212831476842181</v>
+        <v>0.007595292037844793</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.11150208303701</v>
+        <v>2.258577666666667</v>
       </c>
       <c r="H31">
-        <v>2.11150208303701</v>
+        <v>6.775733000000001</v>
       </c>
       <c r="I31">
-        <v>0.124183408637068</v>
+        <v>0.127870268462658</v>
       </c>
       <c r="J31">
-        <v>0.124183408637068</v>
+        <v>0.1454828729464925</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N31">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O31">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P31">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q31">
-        <v>4.170672780211409</v>
+        <v>4.547537720105334</v>
       </c>
       <c r="R31">
-        <v>4.170672780211409</v>
+        <v>27.285226320632</v>
       </c>
       <c r="S31">
-        <v>0.001160330095237397</v>
+        <v>0.001195068550275861</v>
       </c>
       <c r="T31">
-        <v>0.001160330095237397</v>
+        <v>0.0009356422264457151</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.24726404679817</v>
+        <v>3.413168</v>
       </c>
       <c r="H32">
-        <v>3.24726404679817</v>
+        <v>6.826336</v>
       </c>
       <c r="I32">
-        <v>0.1909807815562208</v>
+        <v>0.1932378571299165</v>
       </c>
       <c r="J32">
-        <v>0.1909807815562208</v>
+        <v>0.1465693782470572</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.709550260999</v>
+        <v>18.1514815</v>
       </c>
       <c r="N32">
-        <v>17.709550260999</v>
+        <v>36.302963</v>
       </c>
       <c r="O32">
-        <v>0.08377431957412126</v>
+        <v>0.08425468074010371</v>
       </c>
       <c r="P32">
-        <v>0.08377431957412126</v>
+        <v>0.05797873581900372</v>
       </c>
       <c r="Q32">
-        <v>57.5075858475072</v>
+        <v>61.95405580839199</v>
       </c>
       <c r="R32">
-        <v>57.5075858475072</v>
+        <v>247.816223233568</v>
       </c>
       <c r="S32">
-        <v>0.01599928502660629</v>
+        <v>0.01628119395938289</v>
       </c>
       <c r="T32">
-        <v>0.01599928502660629</v>
+        <v>0.008497907260541761</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.24726404679817</v>
+        <v>3.413168</v>
       </c>
       <c r="H33">
-        <v>3.24726404679817</v>
+        <v>6.826336</v>
       </c>
       <c r="I33">
-        <v>0.1909807815562208</v>
+        <v>0.1932378571299165</v>
       </c>
       <c r="J33">
-        <v>0.1909807815562208</v>
+        <v>0.1465693782470572</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.110946285566531</v>
+        <v>8.54082</v>
       </c>
       <c r="N33">
-        <v>8.110946285566531</v>
+        <v>25.62246</v>
       </c>
       <c r="O33">
-        <v>0.03836850717050633</v>
+        <v>0.03964437075611116</v>
       </c>
       <c r="P33">
-        <v>0.03836850717050633</v>
+        <v>0.04092111818456775</v>
       </c>
       <c r="Q33">
-        <v>26.33838425863136</v>
+        <v>29.15125351776</v>
       </c>
       <c r="R33">
-        <v>26.33838425863136</v>
+        <v>174.90752110656</v>
       </c>
       <c r="S33">
-        <v>0.007327647486568762</v>
+        <v>0.007660793252174847</v>
       </c>
       <c r="T33">
-        <v>0.007327647486568762</v>
+        <v>0.005997782849486442</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.24726404679817</v>
+        <v>3.413168</v>
       </c>
       <c r="H34">
-        <v>3.24726404679817</v>
+        <v>6.826336</v>
       </c>
       <c r="I34">
-        <v>0.1909807815562208</v>
+        <v>0.1932378571299165</v>
       </c>
       <c r="J34">
-        <v>0.1909807815562208</v>
+        <v>0.1465693782470572</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.41081409549381</v>
+        <v>79.03781233333333</v>
       </c>
       <c r="N34">
-        <v>76.41081409549381</v>
+        <v>237.113437</v>
       </c>
       <c r="O34">
-        <v>0.3614583015725647</v>
+        <v>0.3668739460490447</v>
       </c>
       <c r="P34">
-        <v>0.3614583015725647</v>
+        <v>0.3786891258148538</v>
       </c>
       <c r="Q34">
-        <v>248.1260893988759</v>
+        <v>269.7693318461386</v>
       </c>
       <c r="R34">
-        <v>248.1260893988759</v>
+        <v>1618.615991076832</v>
       </c>
       <c r="S34">
-        <v>0.06903158893431256</v>
+        <v>0.07089393517131398</v>
       </c>
       <c r="T34">
-        <v>0.06903158893431256</v>
+        <v>0.05550422971960475</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.24726404679817</v>
+        <v>3.413168</v>
       </c>
       <c r="H35">
-        <v>3.24726404679817</v>
+        <v>6.826336</v>
       </c>
       <c r="I35">
-        <v>0.1909807815562208</v>
+        <v>0.1932378571299165</v>
       </c>
       <c r="J35">
-        <v>0.1909807815562208</v>
+        <v>0.1465693782470572</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>96.6133753976825</v>
+        <v>96.79587533333334</v>
       </c>
       <c r="N35">
-        <v>96.6133753976825</v>
+        <v>290.387626</v>
       </c>
       <c r="O35">
-        <v>0.4570257102194435</v>
+        <v>0.4493024755675663</v>
       </c>
       <c r="P35">
-        <v>0.4570257102194435</v>
+        <v>0.4637722671001168</v>
       </c>
       <c r="Q35">
-        <v>313.7291403687092</v>
+        <v>330.3805842197227</v>
       </c>
       <c r="R35">
-        <v>313.7291403687092</v>
+        <v>1982.283505318336</v>
       </c>
       <c r="S35">
-        <v>0.08728312732899622</v>
+        <v>0.08682224758184316</v>
       </c>
       <c r="T35">
-        <v>0.08728312732899622</v>
+        <v>0.06797481283709227</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.24726404679817</v>
+        <v>3.413168</v>
       </c>
       <c r="H36">
-        <v>3.24726404679817</v>
+        <v>6.826336</v>
       </c>
       <c r="I36">
-        <v>0.1909807815562208</v>
+        <v>0.1932378571299165</v>
       </c>
       <c r="J36">
-        <v>0.1909807815562208</v>
+        <v>0.1465693782470572</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.5760286915855</v>
+        <v>10.89644133333333</v>
       </c>
       <c r="N36">
-        <v>10.5760286915855</v>
+        <v>32.689324</v>
       </c>
       <c r="O36">
-        <v>0.05002948095103009</v>
+        <v>0.05057858146417801</v>
       </c>
       <c r="P36">
-        <v>0.05002948095103009</v>
+        <v>0.05220746527763637</v>
       </c>
       <c r="Q36">
-        <v>34.34315772809149</v>
+        <v>37.19138487281067</v>
       </c>
       <c r="R36">
-        <v>34.34315772809149</v>
+        <v>223.148309236864</v>
       </c>
       <c r="S36">
-        <v>0.009554669372879788</v>
+        <v>0.009773696698808673</v>
       </c>
       <c r="T36">
-        <v>0.009554669372879788</v>
+        <v>0.007652015725597993</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.24726404679817</v>
+        <v>3.413168</v>
       </c>
       <c r="H37">
-        <v>3.24726404679817</v>
+        <v>6.826336</v>
       </c>
       <c r="I37">
-        <v>0.1909807815562208</v>
+        <v>0.1932378571299165</v>
       </c>
       <c r="J37">
-        <v>0.1909807815562208</v>
+        <v>0.1465693782470572</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.97521603872285</v>
+        <v>2.013452</v>
       </c>
       <c r="N37">
-        <v>1.97521603872285</v>
+        <v>4.026904</v>
       </c>
       <c r="O37">
-        <v>0.009343680512334116</v>
+        <v>0.009345945422996096</v>
       </c>
       <c r="P37">
-        <v>0.009343680512334116</v>
+        <v>0.006431287803821671</v>
       </c>
       <c r="Q37">
-        <v>6.414048027203813</v>
+        <v>6.872249935936</v>
       </c>
       <c r="R37">
-        <v>6.414048027203813</v>
+        <v>27.488999743744</v>
       </c>
       <c r="S37">
-        <v>0.001784463406857199</v>
+        <v>0.001805990466392916</v>
       </c>
       <c r="T37">
-        <v>0.001784463406857199</v>
+        <v>0.0009426298547340245</v>
       </c>
     </row>
   </sheetData>
